--- a/data/banco.xlsx
+++ b/data/banco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurfrais\meu_projeto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935A25C0-778C-478A-930D-F3682CEAE9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B4BF7C-4FC9-4A95-B157-A541BFA1139C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
-    <t>Motor de Tração</t>
-  </si>
-  <si>
     <t>VF120-2018</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
     <t>discontinued</t>
   </si>
   <si>
-    <t>Atlas Schindler</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
@@ -245,6 +239,12 @@
   </si>
   <si>
     <t>obsolete</t>
+  </si>
+  <si>
+    <t>Teste banco de dados</t>
+  </si>
+  <si>
+    <t>teste banco de dados</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -670,376 +670,376 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="A16 A2 D2:E2 A3 C3:E3 A4 C4:E4 A5 C5:E5 A6 C6:E6 A7 C7:E7 A8 C8:E8 A9 C9:E9 A10 C10:E10 A11 C11:E11 A12 C12:E12 A13 C13:E13 A14 C14:E14 A15 C15:E15 C16:E16" numberStoredAsText="1"/>
+    <ignoredError sqref="A16 D2:E2 A3 C3:E3 A4 C4:E4 A5 C5:E5 A6 C6:E6 A7 C7:E7 A8 C8:E8 A9 C9:E9 A10 C10:E10 A11 C11:E11 A12 C12:E12 A13 C13:E13 A14 C14:E14 A15 C15:E15 C16:E16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/banco.xlsx
+++ b/data/banco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurfrais\meu_projeto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B4BF7C-4FC9-4A95-B157-A541BFA1139C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4F2FE3-16C3-4068-805F-1B2E80FDD224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes" sheetId="1" r:id="rId1"/>
@@ -241,10 +241,10 @@
     <t>obsolete</t>
   </si>
   <si>
-    <t>Teste banco de dados</t>
-  </si>
-  <si>
-    <t>teste banco de dados</t>
+    <t>Teste date base</t>
+  </si>
+  <si>
+    <t>Teste data base</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/banco.xlsx
+++ b/data/banco.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurfrais\meu_projeto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4F2FE3-16C3-4068-805F-1B2E80FDD224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FD930B-3D41-4B56-8293-92941982AA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes" sheetId="1" r:id="rId1"/>
+    <sheet name="ELV-042" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
   <si>
     <t>VF120-2018</t>
   </si>
@@ -245,6 +246,15 @@
   </si>
   <si>
     <t>Teste data base</t>
+  </si>
+  <si>
+    <t>Power Switch JH</t>
+  </si>
+  <si>
+    <t>Lovato</t>
+  </si>
+  <si>
+    <t>12345-678a</t>
   </si>
 </sst>
 </file>
@@ -309,10 +319,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1044,6 +1055,144 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD022D7-ABE5-4327-90F6-246C2C7BDBBD}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1dc4716b-92d5-4aa9-93a8-2ed8b74a3ef4}" enabled="1" method="Standard" siteId="{aa06dce7-99d7-403b-8a08-0c5f50471e64}" contentBits="0" removed="0"/>

--- a/data/banco.xlsx
+++ b/data/banco.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurfrais\meu_projeto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FD930B-3D41-4B56-8293-92941982AA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BCCA1C-6F62-49A3-8798-1ACCD8350BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes" sheetId="1" r:id="rId1"/>
     <sheet name="ELV-042" sheetId="2" r:id="rId2"/>
+    <sheet name="ELV-128" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="78">
   <si>
     <t>VF120-2018</t>
   </si>
@@ -666,7 +667,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1059,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD022D7-ABE5-4327-90F6-246C2C7BDBBD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1193,6 +1194,237 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F9EAB9-5D38-4425-9DB6-FD9C4B2D39C2}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1dc4716b-92d5-4aa9-93a8-2ed8b74a3ef4}" enabled="1" method="Standard" siteId="{aa06dce7-99d7-403b-8a08-0c5f50471e64}" contentBits="0" removed="0"/>

--- a/data/banco.xlsx
+++ b/data/banco.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurfrais\meu_projeto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BCCA1C-6F62-49A3-8798-1ACCD8350BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE39063-8568-4D48-A46F-9DA7AE22A4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="5775" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes" sheetId="1" r:id="rId1"/>
     <sheet name="ELV-042" sheetId="2" r:id="rId2"/>
     <sheet name="ELV-128" sheetId="3" r:id="rId3"/>
+    <sheet name="ELV-89" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="78">
   <si>
     <t>VF120-2018</t>
   </si>
@@ -1198,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F9EAB9-5D38-4425-9DB6-FD9C4B2D39C2}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1425,6 +1426,76 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7B5EDE-F9C2-4F9B-B0B8-749644F2DC4E}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1dc4716b-92d5-4aa9-93a8-2ed8b74a3ef4}" enabled="1" method="Standard" siteId="{aa06dce7-99d7-403b-8a08-0c5f50471e64}" contentBits="0" removed="0"/>

--- a/data/banco.xlsx
+++ b/data/banco.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurfrais\meu_projeto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE39063-8568-4D48-A46F-9DA7AE22A4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFC32D1-6F8E-488C-BD5D-FCF1F97F42F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="5775" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Componentes" sheetId="1" r:id="rId1"/>
+    <sheet name="ELV-001" sheetId="1" r:id="rId1"/>
     <sheet name="ELV-042" sheetId="2" r:id="rId2"/>
     <sheet name="ELV-128" sheetId="3" r:id="rId3"/>
-    <sheet name="ELV-89" sheetId="4" r:id="rId4"/>
+    <sheet name="ELV-089" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -668,7 +668,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1431,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/banco.xlsx
+++ b/data/banco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurfrais\meu_projeto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFC32D1-6F8E-488C-BD5D-FCF1F97F42F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2606F6E3-3591-4640-BB07-404B1B6AEFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELV-001" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -816,7 +816,7 @@
         <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>72</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD022D7-ABE5-4327-90F6-246C2C7BDBBD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
@@ -1200,7 +1200,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1349,7 +1349,7 @@
         <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1372,7 +1372,7 @@
         <v>72</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7B5EDE-F9C2-4F9B-B0B8-749644F2DC4E}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>

--- a/data/banco.xlsx
+++ b/data/banco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurfrais\meu_projeto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2606F6E3-3591-4640-BB07-404B1B6AEFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740E4AAA-587B-435E-ACF5-A2F64C4208EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELV-001" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="270">
   <si>
     <t>VF120-2018</t>
   </si>
@@ -257,6 +257,582 @@
   </si>
   <si>
     <t>12345-678a</t>
+  </si>
+  <si>
+    <t>3RT2040-1A</t>
+  </si>
+  <si>
+    <t>3RT2050-1A</t>
+  </si>
+  <si>
+    <t>3RT2060-1A</t>
+  </si>
+  <si>
+    <t>Botoeiras de Emergência</t>
+  </si>
+  <si>
+    <t>BE-Series</t>
+  </si>
+  <si>
+    <t>Botoeiras de Cabina</t>
+  </si>
+  <si>
+    <t>BL-Series</t>
+  </si>
+  <si>
+    <t>Botoeiras de Pavimento</t>
+  </si>
+  <si>
+    <t>BT-Series</t>
+  </si>
+  <si>
+    <t>Iluminação de Cabina</t>
+  </si>
+  <si>
+    <t>DALI-LED-5000</t>
+  </si>
+  <si>
+    <t>DALI-LED-6000</t>
+  </si>
+  <si>
+    <t>DALI-LED-7000</t>
+  </si>
+  <si>
+    <t>Sensor de Corrente</t>
+  </si>
+  <si>
+    <t>LEM</t>
+  </si>
+  <si>
+    <t>HLSR-50</t>
+  </si>
+  <si>
+    <t>HLSR-60</t>
+  </si>
+  <si>
+    <t>HLSR-70</t>
+  </si>
+  <si>
+    <t>HLSR-75</t>
+  </si>
+  <si>
+    <t>HLSR-80</t>
+  </si>
+  <si>
+    <t>Relé de Segurança</t>
+  </si>
+  <si>
+    <t>LR9D</t>
+  </si>
+  <si>
+    <t>Relé de Sobrecarga</t>
+  </si>
+  <si>
+    <t>LR9F</t>
+  </si>
+  <si>
+    <t>LR9G</t>
+  </si>
+  <si>
+    <t>Schindler</t>
+  </si>
+  <si>
+    <t>Quadro de Comando Cabina</t>
+  </si>
+  <si>
+    <t>MCS-2030</t>
+  </si>
+  <si>
+    <t>MCS-2040</t>
+  </si>
+  <si>
+    <t>MCS-2050</t>
+  </si>
+  <si>
+    <t>Fonte de Alimentação</t>
+  </si>
+  <si>
+    <t>Phoenix Contact</t>
+  </si>
+  <si>
+    <t>QUINT-PS</t>
+  </si>
+  <si>
+    <t>QUINT-PS2</t>
+  </si>
+  <si>
+    <t>QUINT-PS3</t>
+  </si>
+  <si>
+    <t>QUINT-PS4</t>
+  </si>
+  <si>
+    <t>RXM4AB</t>
+  </si>
+  <si>
+    <t>Disjuntor de Proteção</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>S203P</t>
+  </si>
+  <si>
+    <t>S204P</t>
+  </si>
+  <si>
+    <t>S205P</t>
+  </si>
+  <si>
+    <t>S206P</t>
+  </si>
+  <si>
+    <t>Transformador</t>
+  </si>
+  <si>
+    <t>WEG</t>
+  </si>
+  <si>
+    <t>TC-500</t>
+  </si>
+  <si>
+    <t>TC-600</t>
+  </si>
+  <si>
+    <t>TC-700</t>
+  </si>
+  <si>
+    <t>TC-800</t>
+  </si>
+  <si>
+    <t>V3000</t>
+  </si>
+  <si>
+    <t>V4000</t>
+  </si>
+  <si>
+    <t>V5000</t>
+  </si>
+  <si>
+    <t>Sensor de Carga</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>355-100</t>
+  </si>
+  <si>
+    <t>Sensor de Sobrecarga</t>
+  </si>
+  <si>
+    <t>355-200</t>
+  </si>
+  <si>
+    <t>355-300</t>
+  </si>
+  <si>
+    <t>355-400</t>
+  </si>
+  <si>
+    <t>355-500</t>
+  </si>
+  <si>
+    <t>355-600</t>
+  </si>
+  <si>
+    <t>355-700</t>
+  </si>
+  <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>830M1</t>
+  </si>
+  <si>
+    <t>830M2</t>
+  </si>
+  <si>
+    <t>830M3</t>
+  </si>
+  <si>
+    <t>Sensor de Presença</t>
+  </si>
+  <si>
+    <t>WIKA</t>
+  </si>
+  <si>
+    <t>A-10</t>
+  </si>
+  <si>
+    <t>A-20</t>
+  </si>
+  <si>
+    <t>A-30</t>
+  </si>
+  <si>
+    <t>Sensor de Abertura de Porta</t>
+  </si>
+  <si>
+    <t>Omron</t>
+  </si>
+  <si>
+    <t>D4N-112G</t>
+  </si>
+  <si>
+    <t>D4N-113G</t>
+  </si>
+  <si>
+    <t>D4N-114G</t>
+  </si>
+  <si>
+    <t>Sensor de Porta Aberta</t>
+  </si>
+  <si>
+    <t>D4N-2222</t>
+  </si>
+  <si>
+    <t>ECN-1414</t>
+  </si>
+  <si>
+    <t>Sensor de Posição de Cabina</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>EKMB1101111</t>
+  </si>
+  <si>
+    <t>EKMB1201111</t>
+  </si>
+  <si>
+    <t>Sensor de Parada</t>
+  </si>
+  <si>
+    <t>EKMB1301111</t>
+  </si>
+  <si>
+    <t>Encoder Incremental Compacto</t>
+  </si>
+  <si>
+    <t>EM-LED-1000</t>
+  </si>
+  <si>
+    <t>Bosch</t>
+  </si>
+  <si>
+    <t>FCP-500</t>
+  </si>
+  <si>
+    <t>FCP-600</t>
+  </si>
+  <si>
+    <t>FCP-700</t>
+  </si>
+  <si>
+    <t>Freio de Segurança</t>
+  </si>
+  <si>
+    <t>Baumer</t>
+  </si>
+  <si>
+    <t>GIM1000</t>
+  </si>
+  <si>
+    <t>Sensor de Velocidade</t>
+  </si>
+  <si>
+    <t>GIM500</t>
+  </si>
+  <si>
+    <t>GIM600</t>
+  </si>
+  <si>
+    <t>GIM700</t>
+  </si>
+  <si>
+    <t>GIM800</t>
+  </si>
+  <si>
+    <t>GIM900</t>
+  </si>
+  <si>
+    <t>Hansford Sensors</t>
+  </si>
+  <si>
+    <t>HS-200</t>
+  </si>
+  <si>
+    <t>IFM</t>
+  </si>
+  <si>
+    <t>LR2750</t>
+  </si>
+  <si>
+    <t>LR2800</t>
+  </si>
+  <si>
+    <t>LR2900</t>
+  </si>
+  <si>
+    <t>LR3000</t>
+  </si>
+  <si>
+    <t>LS-400</t>
+  </si>
+  <si>
+    <t>LS-450</t>
+  </si>
+  <si>
+    <t>LS-500</t>
+  </si>
+  <si>
+    <t>LS-600</t>
+  </si>
+  <si>
+    <t>Sensor de Proximidade</t>
+  </si>
+  <si>
+    <t>Pepperl+Fuchs</t>
+  </si>
+  <si>
+    <t>NJ2-V3-N</t>
+  </si>
+  <si>
+    <t>NJ3-V4-N</t>
+  </si>
+  <si>
+    <t>NJ4-V5-N</t>
+  </si>
+  <si>
+    <t>ODSL-30</t>
+  </si>
+  <si>
+    <t>ODSL-40</t>
+  </si>
+  <si>
+    <t>ODSL-50</t>
+  </si>
+  <si>
+    <t>PRK3C</t>
+  </si>
+  <si>
+    <t>PRK4C</t>
+  </si>
+  <si>
+    <t>PRK5C</t>
+  </si>
+  <si>
+    <t>PRK6C</t>
+  </si>
+  <si>
+    <t>Sensor de Fechamento de Porta</t>
+  </si>
+  <si>
+    <t>Banner Engineering</t>
+  </si>
+  <si>
+    <t>Q45VR3</t>
+  </si>
+  <si>
+    <t>Q45VR4</t>
+  </si>
+  <si>
+    <t>Q45VR5</t>
+  </si>
+  <si>
+    <t>RCN-2000</t>
+  </si>
+  <si>
+    <t>RCN-6000</t>
+  </si>
+  <si>
+    <t>RCN-7000</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>SCA121T</t>
+  </si>
+  <si>
+    <t>SCA122T</t>
+  </si>
+  <si>
+    <t>SCA123T</t>
+  </si>
+  <si>
+    <t>Sensor de Temperatura Motor</t>
+  </si>
+  <si>
+    <t>TA-200</t>
+  </si>
+  <si>
+    <t>TEMT6000</t>
+  </si>
+  <si>
+    <t>TEMT7000</t>
+  </si>
+  <si>
+    <t>TEMT8000</t>
+  </si>
+  <si>
+    <t>TN-300</t>
+  </si>
+  <si>
+    <t>TN-400</t>
+  </si>
+  <si>
+    <t>TN-500</t>
+  </si>
+  <si>
+    <t>VTS-100</t>
+  </si>
+  <si>
+    <t>ZQ-900</t>
+  </si>
+  <si>
+    <t>Cabos de Tração</t>
+  </si>
+  <si>
+    <t>11x19S-FC</t>
+  </si>
+  <si>
+    <t>12x19S-FC</t>
+  </si>
+  <si>
+    <t>Amortecedor Hidráulico</t>
+  </si>
+  <si>
+    <t>GMV</t>
+  </si>
+  <si>
+    <t>AP-100</t>
+  </si>
+  <si>
+    <t>Contrapeso</t>
+  </si>
+  <si>
+    <t>CP-100</t>
+  </si>
+  <si>
+    <t>CP-200</t>
+  </si>
+  <si>
+    <t>CP-400</t>
+  </si>
+  <si>
+    <t>CP-500</t>
+  </si>
+  <si>
+    <t>Guias de Cabina</t>
+  </si>
+  <si>
+    <t>GC-200</t>
+  </si>
+  <si>
+    <t>Guias de Contrapeso</t>
+  </si>
+  <si>
+    <t>GC-300</t>
+  </si>
+  <si>
+    <t>GC-400</t>
+  </si>
+  <si>
+    <t>GC-500</t>
+  </si>
+  <si>
+    <t>HD-45</t>
+  </si>
+  <si>
+    <t>HD-75</t>
+  </si>
+  <si>
+    <t>HD-85</t>
+  </si>
+  <si>
+    <t>LC-200</t>
+  </si>
+  <si>
+    <t>Motor de Portas</t>
+  </si>
+  <si>
+    <t>MP-400</t>
+  </si>
+  <si>
+    <t>Motor de Tração</t>
+  </si>
+  <si>
+    <t>MT-500</t>
+  </si>
+  <si>
+    <t>MT-800</t>
+  </si>
+  <si>
+    <t>MT-900</t>
+  </si>
+  <si>
+    <t>Polia de Tração</t>
+  </si>
+  <si>
+    <t>PT-300</t>
+  </si>
+  <si>
+    <t>PT-600</t>
+  </si>
+  <si>
+    <t>PT-700</t>
+  </si>
+  <si>
+    <t>ROBA-stop E</t>
+  </si>
+  <si>
+    <t>ROBA-stop Q</t>
+  </si>
+  <si>
+    <t>ROBA-stop R</t>
+  </si>
+  <si>
+    <t>SH-200</t>
+  </si>
+  <si>
+    <t>SH-300</t>
+  </si>
+  <si>
+    <t>SH-400</t>
+  </si>
+  <si>
+    <t>SH-500</t>
+  </si>
+  <si>
+    <t>SL-300</t>
+  </si>
+  <si>
+    <t>SL-600</t>
+  </si>
+  <si>
+    <t>SL-700</t>
+  </si>
+  <si>
+    <t>TS-100</t>
+  </si>
+  <si>
+    <t>VVF-2300</t>
+  </si>
+  <si>
+    <t>VVF-2400</t>
+  </si>
+  <si>
+    <t>Portas de Pavimento</t>
+  </si>
+  <si>
+    <t>VVF-4000</t>
+  </si>
+  <si>
+    <t>Leuze electronic</t>
   </si>
 </sst>
 </file>
@@ -321,11 +897,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,20 +1244,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B143" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1046,6 +1625,3801 @@
         <v>70</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="4">
+        <v>39420</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="4">
+        <v>39846</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="4">
+        <v>40197</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="4">
+        <v>40576</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="4">
+        <v>42937</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="4">
+        <v>43232</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="4">
+        <v>42276</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="4">
+        <v>42276</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="4">
+        <v>43667</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="4">
+        <v>44262</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="4">
+        <v>44262</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="4">
+        <v>45000</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="4">
+        <v>45192</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="4">
+        <v>45366</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43564</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="4">
+        <v>43930</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="4">
+        <v>44394</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="4">
+        <v>42965</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="4">
+        <v>44660</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="4">
+        <v>41815</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="4">
+        <v>41815</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="4">
+        <v>42696</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="4">
+        <v>42911</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="4">
+        <v>40319</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="4">
+        <v>40319</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="4">
+        <v>41249</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="4">
+        <v>41473</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="4">
+        <v>41979</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="4">
+        <v>42996</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="4">
+        <v>43361</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="4">
+        <v>43630</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="4">
+        <v>44092</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="4">
+        <v>42180</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="4">
+        <v>40328</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="4">
+        <v>40693</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="4">
+        <v>41148</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="4">
+        <v>41424</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="4">
+        <v>42350</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="4">
+        <v>42350</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="4">
+        <v>42716</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57" s="4">
+        <v>42771</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="4">
+        <v>43446</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="4">
+        <v>40956</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E60" s="4">
+        <v>41740</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="4">
+        <v>42072</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" s="4">
+        <v>42471</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E63" s="4">
+        <v>41003</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="4">
+        <v>41255</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="4">
+        <v>41620</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="4">
+        <v>41399</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" s="4">
+        <v>41711</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="4">
+        <v>41985</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" s="4">
+        <v>42098</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" s="4">
+        <v>42716</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E71" s="4">
+        <v>40615</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E72" s="4">
+        <v>41346</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E73" s="4">
+        <v>40981</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E74" s="4">
+        <v>41711</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" s="4">
+        <v>42353</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="4">
+        <v>43084</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="4">
+        <v>42719</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E78" s="4">
+        <v>43449</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E79" s="4">
+        <v>42502</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E80" s="4">
+        <v>42876</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E81" s="4">
+        <v>43232</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E82" s="4">
+        <v>42987</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E83" s="4">
+        <v>42685</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E84" s="4">
+        <v>43261</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E85" s="4">
+        <v>43626</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E86" s="4">
+        <v>43193</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87" s="4">
+        <v>43558</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E88" s="4">
+        <v>43558</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E89" s="4">
+        <v>43924</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E90" s="4">
+        <v>44034</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E91" s="4">
+        <v>41776</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E92" s="4">
+        <v>42141</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E93" s="4">
+        <v>42507</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E94" s="4">
+        <v>42872</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E95" s="4">
+        <v>43271</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E96" s="4">
+        <v>42535</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E97" s="4">
+        <v>42941</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E98" s="4">
+        <v>42175</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E99" s="4">
+        <v>42906</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E100" s="4">
+        <v>42594</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E101" s="4">
+        <v>42541</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E102" s="4">
+        <v>43265</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E103" s="4">
+        <v>42277</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E104" s="4">
+        <v>41333</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E105" s="4">
+        <v>42063</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E106" s="4">
+        <v>42794</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E107" s="4">
+        <v>42428</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E108" s="4">
+        <v>43056</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E109" s="4">
+        <v>43035</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E110" s="4">
+        <v>43151</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E111" s="4">
+        <v>43463</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E112" s="4">
+        <v>43765</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E113" s="4">
+        <v>41701</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E114" s="4">
+        <v>42079</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E115" s="4">
+        <v>42432</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E116" s="4">
+        <v>42658</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E117" s="4">
+        <v>43388</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E118" s="4">
+        <v>43753</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E119" s="4">
+        <v>43060</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E120" s="4">
+        <v>43791</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E121" s="4">
+        <v>43425</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E122" s="4">
+        <v>44156</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E123" s="4">
+        <v>42161</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E124" s="4">
+        <v>42892</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E125" s="4">
+        <v>43257</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E126" s="4">
+        <v>43264</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E127" s="4">
+        <v>43697</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E128" s="4">
+        <v>43992</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E129" s="4">
+        <v>42610</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E130" s="4">
+        <v>42975</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E131" s="4">
+        <v>43340</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E132" s="4">
+        <v>43705</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E133" s="4">
+        <v>42256</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E134" s="4">
+        <v>43668</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E135" s="4">
+        <v>44034</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E136" s="4">
+        <v>44399</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E137" s="4">
+        <v>43288</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E138" s="4">
+        <v>43653</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E139" s="4">
+        <v>44019</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E140" s="4">
+        <v>44384</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E141" s="4">
+        <v>41716</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E142" s="4">
+        <v>41477</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E143" s="4">
+        <v>42241</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E144" s="4">
+        <v>42618</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" s="4">
+        <v>41079</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E146" s="4">
+        <v>40624</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E147" s="4">
+        <v>40409</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E148" s="4">
+        <v>40774</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E149" s="4">
+        <v>41568</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E150" s="4">
+        <v>41870</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E151" s="4">
+        <v>41472</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E152" s="4">
+        <v>41837</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E153" s="4">
+        <v>42419</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E154" s="4">
+        <v>42933</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E155" s="4">
+        <v>40259</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E156" s="4">
+        <v>41458</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E157" s="4">
+        <v>41720</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E158" s="4">
+        <v>40588</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E159" s="4">
+        <v>40766</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E160" s="4">
+        <v>42502</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E161" s="4">
+        <v>43569</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E162" s="4">
+        <v>43963</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E163" s="4">
+        <v>41951</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E164" s="4">
+        <v>43000</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E165" s="4">
+        <v>43412</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E166" s="4">
+        <v>44114</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" s="4">
+        <v>43773</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E168" s="4">
+        <v>44719</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E169" s="4">
+        <v>44479</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E170" s="4">
+        <v>40937</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E171" s="4">
+        <v>41303</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E172" s="4">
+        <v>42152</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E173" s="4">
+        <v>42398</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E174" s="4">
+        <v>39858</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E175" s="4">
+        <v>41224</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E176" s="4">
+        <v>41319</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E177" s="4">
+        <v>40223</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178" s="4">
+        <v>40401</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E179" s="4">
+        <v>41654</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E180" s="4">
+        <v>42158</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E181" s="4">
+        <v>41063</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1061,8 +5435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD022D7-ABE5-4327-90F6-246C2C7BDBBD}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/banco.xlsx
+++ b/data/banco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurfrais\meu_projeto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740E4AAA-587B-435E-ACF5-A2F64C4208EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D56A058-7603-44CD-A341-3A75D249AE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="270">
   <si>
     <t>VF120-2018</t>
   </si>
@@ -1244,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1285,22 +1285,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>64</v>
@@ -1308,88 +1308,88 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>72</v>
@@ -1400,19 +1400,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>72</v>
@@ -1423,42 +1423,42 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>71</v>
@@ -1469,68 +1469,68 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>64</v>
@@ -1538,65 +1538,65 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>70</v>
@@ -1607,25 +1607,25 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
+      </c>
+      <c r="E16" s="4">
+        <v>39420</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1639,10 +1639,10 @@
         <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E17" s="4">
-        <v>39420</v>
+        <v>39846</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>72</v>
@@ -1662,10 +1662,10 @@
         <v>35</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18" s="4">
-        <v>39846</v>
+        <v>40197</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>72</v>
@@ -1685,10 +1685,10 @@
         <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E19" s="4">
-        <v>40197</v>
+        <v>40576</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>72</v>
@@ -1699,30 +1699,30 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E20" s="4">
-        <v>40576</v>
+        <v>42937</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>67</v>
@@ -1731,13 +1731,13 @@
         <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E21" s="4">
-        <v>42937</v>
+        <v>43232</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>64</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>67</v>
@@ -1754,13 +1754,13 @@
         <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="E22" s="4">
-        <v>43232</v>
+        <v>42276</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>64</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>67</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>67</v>
@@ -1800,13 +1800,13 @@
         <v>27</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="E24" s="4">
-        <v>42276</v>
+        <v>43667</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>64</v>
@@ -1814,22 +1814,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="E25" s="4">
-        <v>43667</v>
+        <v>44262</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>64</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>67</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>67</v>
@@ -1869,13 +1869,13 @@
         <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="E27" s="4">
-        <v>44262</v>
+        <v>45000</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>64</v>
@@ -1892,10 +1892,10 @@
         <v>31</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E28" s="4">
-        <v>45000</v>
+        <v>45192</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>70</v>
@@ -1915,10 +1915,10 @@
         <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" s="4">
-        <v>45192</v>
+        <v>45366</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>70</v>
@@ -1929,19 +1929,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E30" s="4">
-        <v>45366</v>
+        <v>43564</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>70</v>
@@ -1961,10 +1961,10 @@
         <v>92</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E31" s="4">
-        <v>43564</v>
+        <v>43930</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>70</v>
@@ -1984,10 +1984,10 @@
         <v>92</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E32" s="4">
-        <v>43930</v>
+        <v>44394</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>70</v>
@@ -2007,10 +2007,10 @@
         <v>92</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E33" s="4">
-        <v>44394</v>
+        <v>42965</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>70</v>
@@ -2030,10 +2030,10 @@
         <v>92</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E34" s="4">
-        <v>42965</v>
+        <v>44660</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>70</v>
@@ -2044,22 +2044,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E35" s="4">
-        <v>44660</v>
+        <v>41815</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>64</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>67</v>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>67</v>
@@ -2099,13 +2099,13 @@
         <v>39</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E37" s="4">
-        <v>41815</v>
+        <v>42696</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>64</v>
@@ -2122,10 +2122,10 @@
         <v>39</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E38" s="4">
-        <v>42696</v>
+        <v>42911</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>71</v>
@@ -2136,22 +2136,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="E39" s="4">
-        <v>42911</v>
+        <v>40319</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>64</v>
@@ -2165,7 +2165,7 @@
         <v>67</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>24</v>
@@ -2182,19 +2182,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="E41" s="4">
-        <v>40319</v>
+        <v>41249</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>72</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>67</v>
@@ -2214,10 +2214,10 @@
         <v>103</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E42" s="4">
-        <v>41249</v>
+        <v>41473</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>72</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>67</v>
@@ -2237,10 +2237,10 @@
         <v>103</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E43" s="4">
-        <v>41473</v>
+        <v>41979</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>72</v>
@@ -2251,22 +2251,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E44" s="4">
-        <v>41979</v>
+        <v>42996</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>64</v>
@@ -2283,10 +2283,10 @@
         <v>109</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E45" s="4">
-        <v>42996</v>
+        <v>43361</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>71</v>
@@ -2306,10 +2306,10 @@
         <v>109</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E46" s="4">
-        <v>43361</v>
+        <v>43630</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>71</v>
@@ -2329,10 +2329,10 @@
         <v>109</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E47" s="4">
-        <v>43630</v>
+        <v>44092</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>71</v>
@@ -2343,22 +2343,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E48" s="4">
-        <v>44092</v>
+        <v>42180</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>64</v>
@@ -2366,25 +2366,25 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E49" s="4">
-        <v>42180</v>
+        <v>40328</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2398,10 +2398,10 @@
         <v>116</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E50" s="4">
-        <v>40328</v>
+        <v>40693</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>72</v>
@@ -2421,10 +2421,10 @@
         <v>116</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E51" s="4">
-        <v>40693</v>
+        <v>41148</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>72</v>
@@ -2444,10 +2444,10 @@
         <v>116</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E52" s="4">
-        <v>41148</v>
+        <v>41424</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>72</v>
@@ -2458,25 +2458,25 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E53" s="4">
-        <v>41424</v>
+        <v>42350</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2513,10 +2513,10 @@
         <v>122</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E55" s="4">
-        <v>42350</v>
+        <v>42716</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>71</v>
@@ -2536,10 +2536,10 @@
         <v>122</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E56" s="4">
-        <v>42716</v>
+        <v>42771</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>71</v>
@@ -2559,10 +2559,10 @@
         <v>122</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E57" s="4">
-        <v>42771</v>
+        <v>43446</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>71</v>
@@ -2573,22 +2573,22 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="E58" s="4">
-        <v>43446</v>
+        <v>40956</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>64</v>
@@ -2605,13 +2605,13 @@
         <v>19</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="E59" s="4">
-        <v>40956</v>
+        <v>41740</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>64</v>
@@ -2628,10 +2628,10 @@
         <v>19</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E60" s="4">
-        <v>41740</v>
+        <v>42072</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>71</v>
@@ -2651,10 +2651,10 @@
         <v>19</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E61" s="4">
-        <v>42072</v>
+        <v>42471</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>71</v>
@@ -2665,22 +2665,22 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E62" s="4">
-        <v>42471</v>
+        <v>41003</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>64</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>68</v>
@@ -2697,10 +2697,10 @@
         <v>131</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E63" s="4">
-        <v>41003</v>
+        <v>41255</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>72</v>
@@ -2720,10 +2720,10 @@
         <v>131</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E64" s="4">
-        <v>41255</v>
+        <v>41620</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>72</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>68</v>
@@ -2746,7 +2746,7 @@
         <v>135</v>
       </c>
       <c r="E65" s="4">
-        <v>41620</v>
+        <v>41399</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>72</v>
@@ -2766,10 +2766,10 @@
         <v>131</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E66" s="4">
-        <v>41399</v>
+        <v>41711</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>72</v>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>68</v>
@@ -2789,10 +2789,10 @@
         <v>131</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E67" s="4">
-        <v>41711</v>
+        <v>41985</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>72</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>68</v>
@@ -2812,10 +2812,10 @@
         <v>131</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E68" s="4">
-        <v>41985</v>
+        <v>42098</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>72</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>68</v>
@@ -2835,10 +2835,10 @@
         <v>131</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E69" s="4">
-        <v>42098</v>
+        <v>42716</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>72</v>
@@ -2849,19 +2849,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E70" s="4">
-        <v>42716</v>
+        <v>40615</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>72</v>
@@ -2881,10 +2881,10 @@
         <v>140</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E71" s="4">
-        <v>40615</v>
+        <v>41346</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>72</v>
@@ -2907,7 +2907,7 @@
         <v>142</v>
       </c>
       <c r="E72" s="4">
-        <v>41346</v>
+        <v>40981</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>72</v>
@@ -2927,10 +2927,10 @@
         <v>140</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E73" s="4">
-        <v>40981</v>
+        <v>41711</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>72</v>
@@ -2941,22 +2941,22 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E74" s="4">
-        <v>41711</v>
+        <v>42353</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>64</v>
@@ -2973,10 +2973,10 @@
         <v>145</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E75" s="4">
-        <v>42353</v>
+        <v>43084</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>71</v>
@@ -2999,7 +2999,7 @@
         <v>147</v>
       </c>
       <c r="E76" s="4">
-        <v>43084</v>
+        <v>42719</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>71</v>
@@ -3019,10 +3019,10 @@
         <v>145</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E77" s="4">
-        <v>42719</v>
+        <v>43449</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>71</v>
@@ -3033,19 +3033,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E78" s="4">
-        <v>43449</v>
+        <v>42502</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>71</v>
@@ -3065,10 +3065,10 @@
         <v>150</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E79" s="4">
-        <v>42502</v>
+        <v>42876</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>71</v>
@@ -3088,10 +3088,10 @@
         <v>150</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E80" s="4">
-        <v>42876</v>
+        <v>43232</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>71</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>68</v>
@@ -3111,10 +3111,10 @@
         <v>150</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E81" s="4">
-        <v>43232</v>
+        <v>42987</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>71</v>
@@ -3137,7 +3137,7 @@
         <v>155</v>
       </c>
       <c r="E82" s="4">
-        <v>42987</v>
+        <v>42685</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>71</v>
@@ -3148,22 +3148,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="E83" s="4">
-        <v>42685</v>
+        <v>43261</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>64</v>
@@ -3180,10 +3180,10 @@
         <v>55</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="E84" s="4">
-        <v>43261</v>
+        <v>43626</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>72</v>
@@ -3194,22 +3194,22 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E85" s="4">
-        <v>43626</v>
+        <v>43193</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>64</v>
@@ -3226,10 +3226,10 @@
         <v>158</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E86" s="4">
-        <v>43193</v>
+        <v>43558</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>70</v>
@@ -3240,7 +3240,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>68</v>
@@ -3272,10 +3272,10 @@
         <v>158</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E88" s="4">
-        <v>43558</v>
+        <v>43924</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>70</v>
@@ -3286,19 +3286,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E89" s="4">
-        <v>43924</v>
+        <v>44034</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>70</v>
@@ -3309,22 +3309,22 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E90" s="4">
-        <v>44034</v>
+        <v>41776</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>64</v>
@@ -3341,10 +3341,10 @@
         <v>165</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E91" s="4">
-        <v>41776</v>
+        <v>42141</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>71</v>
@@ -3367,7 +3367,7 @@
         <v>167</v>
       </c>
       <c r="E92" s="4">
-        <v>42141</v>
+        <v>42507</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>71</v>
@@ -3387,10 +3387,10 @@
         <v>165</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E93" s="4">
-        <v>42507</v>
+        <v>42872</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>71</v>
@@ -3401,19 +3401,19 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E94" s="4">
-        <v>42872</v>
+        <v>43271</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>71</v>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>68</v>
@@ -3433,10 +3433,10 @@
         <v>170</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E95" s="4">
-        <v>43271</v>
+        <v>42535</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>71</v>
@@ -3456,10 +3456,10 @@
         <v>170</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E96" s="4">
-        <v>42535</v>
+        <v>42941</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>71</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>68</v>
@@ -3479,10 +3479,10 @@
         <v>170</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E97" s="4">
-        <v>42941</v>
+        <v>42175</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>71</v>
@@ -3502,10 +3502,10 @@
         <v>170</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E98" s="4">
-        <v>42175</v>
+        <v>42906</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>71</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>68</v>
@@ -3528,7 +3528,7 @@
         <v>176</v>
       </c>
       <c r="E99" s="4">
-        <v>42906</v>
+        <v>42594</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>71</v>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>68</v>
@@ -3548,10 +3548,10 @@
         <v>170</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E100" s="4">
-        <v>42594</v>
+        <v>42541</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>71</v>
@@ -3562,7 +3562,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>68</v>
@@ -3574,7 +3574,7 @@
         <v>177</v>
       </c>
       <c r="E101" s="4">
-        <v>42541</v>
+        <v>43265</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>71</v>
@@ -3591,13 +3591,13 @@
         <v>68</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E102" s="4">
-        <v>43265</v>
+        <v>42277</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>71</v>
@@ -3608,22 +3608,22 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E103" s="4">
-        <v>42277</v>
+        <v>41333</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>64</v>
@@ -3640,10 +3640,10 @@
         <v>180</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E104" s="4">
-        <v>41333</v>
+        <v>42063</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>72</v>
@@ -3654,7 +3654,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>68</v>
@@ -3663,10 +3663,10 @@
         <v>180</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E105" s="4">
-        <v>42063</v>
+        <v>42794</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>72</v>
@@ -3686,13 +3686,13 @@
         <v>180</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E106" s="4">
-        <v>42794</v>
+        <v>42428</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>64</v>
@@ -3700,22 +3700,22 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>180</v>
+        <v>47</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="E107" s="4">
-        <v>42428</v>
+        <v>43056</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>64</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>68</v>
@@ -3732,10 +3732,10 @@
         <v>47</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="E108" s="4">
-        <v>43056</v>
+        <v>43035</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>72</v>
@@ -3755,13 +3755,13 @@
         <v>47</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E109" s="4">
-        <v>43035</v>
+        <v>43151</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>64</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>68</v>
@@ -3778,13 +3778,13 @@
         <v>47</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E110" s="4">
-        <v>43151</v>
+        <v>43463</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>64</v>
@@ -3801,10 +3801,10 @@
         <v>47</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E111" s="4">
-        <v>43463</v>
+        <v>43765</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>70</v>
@@ -3815,22 +3815,22 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>46</v>
+        <v>189</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="E112" s="4">
-        <v>43765</v>
+        <v>41701</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>64</v>
@@ -3847,13 +3847,13 @@
         <v>190</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E113" s="4">
-        <v>41701</v>
+        <v>42079</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>64</v>
@@ -3870,10 +3870,10 @@
         <v>190</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E114" s="4">
-        <v>42079</v>
+        <v>42432</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>71</v>
@@ -3884,19 +3884,19 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>190</v>
+        <v>269</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E115" s="4">
-        <v>42432</v>
+        <v>42658</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>71</v>
@@ -3916,10 +3916,10 @@
         <v>269</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E116" s="4">
-        <v>42658</v>
+        <v>43388</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>71</v>
@@ -3939,10 +3939,10 @@
         <v>269</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E117" s="4">
-        <v>43388</v>
+        <v>43753</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>71</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>68</v>
@@ -3962,13 +3962,13 @@
         <v>269</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E118" s="4">
-        <v>43753</v>
+        <v>43060</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>64</v>
@@ -3985,10 +3985,10 @@
         <v>269</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E119" s="4">
-        <v>43060</v>
+        <v>43791</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>70</v>
@@ -4008,10 +4008,10 @@
         <v>269</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E120" s="4">
-        <v>43791</v>
+        <v>43425</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>70</v>
@@ -4031,10 +4031,10 @@
         <v>269</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E121" s="4">
-        <v>43425</v>
+        <v>44156</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>70</v>
@@ -4045,22 +4045,22 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>144</v>
+        <v>201</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>269</v>
+        <v>202</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E122" s="4">
-        <v>44156</v>
+        <v>42161</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>64</v>
@@ -4077,10 +4077,10 @@
         <v>202</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E123" s="4">
-        <v>42161</v>
+        <v>42892</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>71</v>
@@ -4100,10 +4100,10 @@
         <v>202</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E124" s="4">
-        <v>42892</v>
+        <v>43257</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>71</v>
@@ -4114,22 +4114,22 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E125" s="4">
-        <v>43257</v>
+        <v>43264</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>64</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>68</v>
@@ -4146,13 +4146,13 @@
         <v>55</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E126" s="4">
-        <v>43264</v>
+        <v>43697</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>64</v>
@@ -4169,10 +4169,10 @@
         <v>55</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E127" s="4">
-        <v>43697</v>
+        <v>43992</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>71</v>
@@ -4189,13 +4189,13 @@
         <v>68</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>55</v>
+        <v>209</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E128" s="4">
-        <v>43992</v>
+        <v>42610</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>71</v>
@@ -4215,10 +4215,10 @@
         <v>209</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E129" s="4">
-        <v>42610</v>
+        <v>42975</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>71</v>
@@ -4241,7 +4241,7 @@
         <v>211</v>
       </c>
       <c r="E130" s="4">
-        <v>42975</v>
+        <v>43340</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>71</v>
@@ -4261,10 +4261,10 @@
         <v>209</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E131" s="4">
-        <v>43340</v>
+        <v>43705</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>71</v>
@@ -4275,19 +4275,19 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E132" s="4">
-        <v>43705</v>
+        <v>42256</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>71</v>
@@ -4298,22 +4298,22 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E133" s="4">
-        <v>42256</v>
+        <v>43668</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>64</v>
@@ -4330,10 +4330,10 @@
         <v>131</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E134" s="4">
-        <v>43668</v>
+        <v>44034</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>70</v>
@@ -4353,10 +4353,10 @@
         <v>131</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E135" s="4">
-        <v>44034</v>
+        <v>44399</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>70</v>
@@ -4367,22 +4367,22 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E136" s="4">
-        <v>44399</v>
+        <v>43288</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>64</v>
@@ -4399,13 +4399,13 @@
         <v>180</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E137" s="4">
-        <v>43288</v>
+        <v>43653</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>64</v>
@@ -4425,10 +4425,10 @@
         <v>219</v>
       </c>
       <c r="E138" s="4">
-        <v>43653</v>
+        <v>44019</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>64</v>
@@ -4445,10 +4445,10 @@
         <v>180</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E139" s="4">
-        <v>44019</v>
+        <v>44384</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>71</v>
@@ -4459,19 +4459,19 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>180</v>
+        <v>47</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E140" s="4">
-        <v>44384</v>
+        <v>41716</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>71</v>
@@ -4482,22 +4482,22 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E141" s="4">
-        <v>41716</v>
+        <v>41477</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>64</v>
@@ -4505,22 +4505,22 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E142" s="4">
-        <v>41477</v>
+        <v>42241</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>64</v>
@@ -4537,10 +4537,10 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E143" s="4">
-        <v>42241</v>
+        <v>42618</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>70</v>
@@ -4560,13 +4560,13 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>225</v>
+        <v>4</v>
       </c>
       <c r="E144" s="4">
-        <v>42618</v>
+        <v>41079</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>64</v>
@@ -4574,19 +4574,19 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>4</v>
+        <v>228</v>
       </c>
       <c r="E145" s="4">
-        <v>41079</v>
+        <v>40624</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>71</v>
@@ -4597,22 +4597,22 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E146" s="4">
-        <v>40624</v>
+        <v>40409</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>64</v>
@@ -4629,10 +4629,10 @@
         <v>103</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E147" s="4">
-        <v>40409</v>
+        <v>40774</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>72</v>
@@ -4652,10 +4652,10 @@
         <v>103</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E148" s="4">
-        <v>40774</v>
+        <v>41568</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>72</v>
@@ -4675,10 +4675,10 @@
         <v>103</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E149" s="4">
-        <v>41568</v>
+        <v>41870</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>72</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>66</v>
@@ -4698,13 +4698,13 @@
         <v>103</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E150" s="4">
-        <v>41870</v>
+        <v>41472</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>64</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>66</v>
@@ -4721,10 +4721,10 @@
         <v>103</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E151" s="4">
-        <v>41472</v>
+        <v>41837</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>71</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>66</v>
@@ -4744,10 +4744,10 @@
         <v>103</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E152" s="4">
-        <v>41837</v>
+        <v>42419</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>71</v>
@@ -4767,10 +4767,10 @@
         <v>103</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E153" s="4">
-        <v>42419</v>
+        <v>42933</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>71</v>
@@ -4781,25 +4781,25 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E154" s="4">
-        <v>42933</v>
+        <v>40259</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4813,10 +4813,10 @@
         <v>227</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E155" s="4">
-        <v>40259</v>
+        <v>41458</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>72</v>
@@ -4836,10 +4836,10 @@
         <v>227</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E156" s="4">
-        <v>41458</v>
+        <v>41720</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>72</v>
@@ -4850,19 +4850,19 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>226</v>
+        <v>6</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>227</v>
+        <v>7</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E157" s="4">
-        <v>41720</v>
+        <v>40588</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>72</v>
@@ -4873,45 +4873,45 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E158" s="4">
-        <v>40588</v>
+        <v>40766</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E159" s="4">
-        <v>40766</v>
+        <v>42502</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>64</v>
@@ -4928,10 +4928,10 @@
         <v>103</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E160" s="4">
-        <v>42502</v>
+        <v>43569</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>70</v>
@@ -4951,10 +4951,10 @@
         <v>103</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E161" s="4">
-        <v>43569</v>
+        <v>43963</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>70</v>
@@ -4965,7 +4965,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>66</v>
@@ -4974,13 +4974,13 @@
         <v>103</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E162" s="4">
-        <v>43963</v>
+        <v>41951</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>64</v>
@@ -4997,10 +4997,10 @@
         <v>103</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E163" s="4">
-        <v>41951</v>
+        <v>43000</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>71</v>
@@ -5020,10 +5020,10 @@
         <v>103</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E164" s="4">
-        <v>43000</v>
+        <v>43412</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>71</v>
@@ -5034,22 +5034,22 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E165" s="4">
-        <v>43412</v>
+        <v>44114</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>64</v>
@@ -5066,13 +5066,13 @@
         <v>11</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="E166" s="4">
-        <v>44114</v>
+        <v>43773</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>64</v>
@@ -5089,13 +5089,13 @@
         <v>11</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="E167" s="4">
-        <v>43773</v>
+        <v>44719</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>64</v>
@@ -5112,10 +5112,10 @@
         <v>11</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E168" s="4">
-        <v>44719</v>
+        <v>44479</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>70</v>
@@ -5126,22 +5126,22 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E169" s="4">
-        <v>44479</v>
+        <v>40937</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>64</v>
@@ -5158,10 +5158,10 @@
         <v>227</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E170" s="4">
-        <v>40937</v>
+        <v>41303</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>71</v>
@@ -5181,10 +5181,10 @@
         <v>227</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E171" s="4">
-        <v>41303</v>
+        <v>42152</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>71</v>
@@ -5204,10 +5204,10 @@
         <v>227</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E172" s="4">
-        <v>42152</v>
+        <v>42398</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>71</v>
@@ -5218,25 +5218,25 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>226</v>
+        <v>6</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>227</v>
+        <v>7</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E173" s="4">
-        <v>42398</v>
+        <v>39858</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -5250,10 +5250,10 @@
         <v>7</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E174" s="4">
-        <v>39858</v>
+        <v>41224</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>72</v>
@@ -5273,10 +5273,10 @@
         <v>7</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E175" s="4">
-        <v>41224</v>
+        <v>41319</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>72</v>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>66</v>
@@ -5296,10 +5296,10 @@
         <v>7</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E176" s="4">
-        <v>41319</v>
+        <v>40223</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>72</v>
@@ -5310,25 +5310,25 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="E177" s="4">
-        <v>40223</v>
+        <v>40401</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -5342,13 +5342,13 @@
         <v>15</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="E178" s="4">
-        <v>40401</v>
+        <v>41654</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>64</v>
@@ -5365,10 +5365,10 @@
         <v>15</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E179" s="4">
-        <v>41654</v>
+        <v>42158</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>71</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>66</v>
@@ -5388,45 +5388,22 @@
         <v>15</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E180" s="4">
-        <v>42158</v>
+        <v>41063</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E181" s="4">
-        <v>41063</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G181" s="1" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="A16 D2:E2 A3 C3:E3 A4 C4:E4 A5 C5:E5 A6 C6:E6 A7 C7:E7 A8 C8:E8 A9 C9:E9 A10 C10:E10 A11 C11:E11 A12 C12:E12 A13 C13:E13 A14 C14:E14 A15 C15:E15 C16:E16" numberStoredAsText="1"/>
+    <ignoredError sqref="A15 A2 C2:E2 A3 C3:E3 A4 C4:E4 A5 C5:E5 A6 C6:E6 A7 C7:E7 A8 C8:E8 A9 C9:E9 A10 C10:E10 A11 C11:E11 A12 C12:E12 A13 C13:E13 A14 C14:E14 C15:E15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/data/banco.xlsx
+++ b/data/banco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurfrais\meu_projeto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B95101-7FEB-4446-8443-603F547CE904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C3D721-6249-4186-AA20-622EC8CE6F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="91">
   <si>
     <t>VF120-2018</t>
   </si>
@@ -287,13 +287,22 @@
   </si>
   <si>
     <t>9/23/2023</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://http2.mlstatic.com/D_711577-MLB91313470010_092025-C.jpg</t>
+  </si>
+  <si>
+    <t>L7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -316,6 +325,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -331,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -354,11 +371,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -383,8 +412,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -722,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -736,9 +768,10 @@
     <col min="4" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -760,8 +793,11 @@
       <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -783,8 +819,9 @@
       <c r="G2" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -806,8 +843,9 @@
       <c r="G3" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -829,8 +867,9 @@
       <c r="G4" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -852,8 +891,9 @@
       <c r="G5" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -864,7 +904,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="E6" s="3">
         <v>43878</v>
@@ -875,8 +915,11 @@
       <c r="G6" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -898,8 +941,9 @@
       <c r="G7" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -921,8 +965,9 @@
       <c r="G8" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -944,8 +989,9 @@
       <c r="G9" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -967,8 +1013,9 @@
       <c r="G10" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -990,6 +1037,7 @@
       <c r="G11" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/data/banco.xlsx
+++ b/data/banco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurfrais\meu_projeto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C3D721-6249-4186-AA20-622EC8CE6F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AA54D5-4413-4CE6-A88D-AC7F94D5A07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-165" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELV-001" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="95">
   <si>
     <t>VF120-2018</t>
   </si>
@@ -296,6 +296,18 @@
   </si>
   <si>
     <t>L7</t>
+  </si>
+  <si>
+    <t>https://pac.schindler.com/4ap-pac/12f742b05ddadc51302c7983f8d5d393/HIR/0/</t>
+  </si>
+  <si>
+    <t>https://pac.schindler.com/4ap-pac/a45ceb6639ae08b2798771e1ec192a6d/HIR/0/</t>
+  </si>
+  <si>
+    <t>https://www.plc-city.com/shop/56399-thickbox_default/3rt2023-1af00-nfs.jpg</t>
+  </si>
+  <si>
+    <t>https://mkskablo.com/wp-content/uploads/Elevator-Traveling-Cable-4xCAT6e-Data-Lan.jpg</t>
   </si>
 </sst>
 </file>
@@ -756,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -768,7 +780,7 @@
     <col min="4" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.125" customWidth="1"/>
-    <col min="8" max="8" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="113.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -819,7 +831,9 @@
       <c r="G2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="13" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -843,7 +857,9 @@
       <c r="G3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -989,7 +1005,9 @@
       <c r="G9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1037,9 +1055,14 @@
       <c r="G11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{99A5682A-0895-479F-A041-54DBBEE14D77}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/data/banco.xlsx
+++ b/data/banco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurfrais\meu_projeto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AA54D5-4413-4CE6-A88D-AC7F94D5A07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93107081-E510-47A2-8933-19924B6B5014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-165" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELV-001" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="94">
   <si>
     <t>VF120-2018</t>
   </si>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t>https://www.plc-city.com/shop/56399-thickbox_default/3rt2023-1af00-nfs.jpg</t>
-  </si>
-  <si>
-    <t>https://mkskablo.com/wp-content/uploads/Elevator-Traveling-Cable-4xCAT6e-Data-Lan.jpg</t>
   </si>
 </sst>
 </file>
@@ -769,7 +766,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -831,9 +828,7 @@
       <c r="G2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>94</v>
-      </c>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1060,9 +1055,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{99A5682A-0895-479F-A041-54DBBEE14D77}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/data/banco.xlsx
+++ b/data/banco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurfrais\meu_projeto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93107081-E510-47A2-8933-19924B6B5014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C23B50-9633-491D-A616-1EE6B3951C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="96">
   <si>
     <t>VF120-2018</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t>https://www.plc-city.com/shop/56399-thickbox_default/3rt2023-1af00-nfs.jpg</t>
+  </si>
+  <si>
+    <t>https://pac.schindler.com/4ap-pac/0535165cf8c4290f153be87e48a651de/HIR/0/</t>
+  </si>
+  <si>
+    <t>FIX 500 M-1BS SF</t>
   </si>
 </sst>
 </file>
@@ -765,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -962,10 +968,10 @@
         <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="E8" s="3">
         <v>42276</v>
@@ -976,7 +982,9 @@
       <c r="G8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">

--- a/data/banco.xlsx
+++ b/data/banco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hurfrais\meu_projeto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C23B50-9633-491D-A616-1EE6B3951C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCC4781-0198-494E-A2A9-EBBF730ACA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELV-001" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="96">
-  <si>
-    <t>VF120-2018</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="95">
   <si>
     <t>Cabos de Suspensão</t>
   </si>
@@ -181,12 +178,6 @@
     <t>obsolete</t>
   </si>
   <si>
-    <t>Teste date base</t>
-  </si>
-  <si>
-    <t>Teste data base</t>
-  </si>
-  <si>
     <t>Power Switch JH</t>
   </si>
   <si>
@@ -311,6 +302,12 @@
   </si>
   <si>
     <t>FIX 500 M-1BS SF</t>
+  </si>
+  <si>
+    <t>Governador de velocidade</t>
+  </si>
+  <si>
+    <t>OL100</t>
   </si>
 </sst>
 </file>
@@ -771,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -788,278 +785,278 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E2" s="3">
         <v>41079</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="E3" s="3">
         <v>39456</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E4" s="3">
         <v>43773</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E5" s="3">
         <v>40401</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E6" s="3">
         <v>43878</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E7" s="3">
         <v>40319</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3">
         <v>42276</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E9" s="3">
         <v>39420</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E10" s="3">
         <v>40134</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E11" s="3">
         <v>43261</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1071,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD022D7-ABE5-4327-90F6-246C2C7BDBBD}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A30:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1088,255 +1085,255 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" s="7">
         <v>43173</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="E3" s="7">
         <v>41079</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E4" s="7">
         <v>42276</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" s="7">
         <v>42276</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" s="7">
         <v>43439</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" s="7">
         <v>42709</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E9" s="7">
         <v>42250</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1349,7 +1346,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1365,255 +1362,255 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" s="5">
         <v>43173</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="E3" s="5">
         <v>41079</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="E4" s="5">
         <v>39456</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="E5" s="5">
         <v>43773</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E6" s="5">
         <v>40401</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E7" s="5">
         <v>43878</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="E8" s="5">
         <v>44262</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="5">
         <v>40657</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" s="5">
         <v>42709</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" s="5">
         <v>43653</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1623,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D23" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1642,255 +1639,255 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" s="10">
         <v>43173</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E3" s="10">
         <v>43439</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E6" s="10">
         <v>44114</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E7" s="10">
         <v>42709</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" s="10">
         <v>43894</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" s="10">
         <v>43653</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
